--- a/Financials/Fair Isaac Corporation.xlsx
+++ b/Financials/Fair Isaac Corporation.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96643BB7-2F3F-B144-BA0D-61AF68D6E7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2CC706-FA01-A946-A45B-9EFF67A3DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -528,9 +551,6 @@
   <si>
     <t>Buy/Sell</t>
   </si>
-  <si>
-    <t>Fair Isaac Corporation</t>
-  </si>
 </sst>
 </file>
 
@@ -878,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -963,11 +971,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -991,12 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1008,10 +1005,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1019,6 +1012,29 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2385,6 +2401,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1svnm&amp;q=XNYS%3aFICO&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1svnm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>711.84500000000003</v>
+    <v>340.48</v>
+    <v>1.2672000000000001</v>
+    <v>-4.2</v>
+    <v>-6.2070000000000007E-3</v>
+    <v>0</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
+    <v>3305</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
+    <v>677</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.958333367969</v>
+    <v>0</v>
+    <v>668.98</v>
+    <v>16914570000</v>
+    <v>FAIR ISAAC CORPORATION</v>
+    <v>FAIR ISAAC CORPORATION</v>
+    <v>671.3</v>
+    <v>45.255699999999997</v>
+    <v>676.62</v>
+    <v>672.42</v>
+    <v>672.42</v>
+    <v>25154780</v>
+    <v>FICO</v>
+    <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
+    <v>127596</v>
+    <v>432187</v>
+    <v>1987</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2685,10 +3141,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ87" sqref="AQ87"/>
+      <selection pane="bottomRight" activeCell="AT101" sqref="AT101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2699,8 +3155,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>160</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1986</v>
@@ -4852,15 +5308,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>12.528918933832871</v>
+        <v>12.2812302598619</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>46.194940260908439</v>
+        <v>45.281695985179674</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>34.276885906626859</v>
+        <v>33.599253904783474</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -12780,10 +13236,10 @@
       <c r="AL83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS83" s="33" t="s">
+      <c r="AS83" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="34"/>
+      <c r="AT83" s="58"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12900,10 +13356,10 @@
       <c r="AL84" s="1">
         <v>-2802000</v>
       </c>
-      <c r="AS84" s="35" t="s">
+      <c r="AS84" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="36"/>
+      <c r="AT84" s="60"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13389,10 +13845,10 @@
       <c r="AL88" s="1">
         <v>-6029000</v>
       </c>
-      <c r="AS88" s="37" t="s">
+      <c r="AS88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AT88" s="38">
+      <c r="AT88" s="34">
         <f>AT85/(AT86+AT87)</f>
         <v>3.6066268179037041E-2</v>
       </c>
@@ -13795,10 +14251,10 @@
       <c r="AL91" s="1">
         <v>-9963000</v>
       </c>
-      <c r="AS91" s="37" t="s">
+      <c r="AS91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AT91" s="38">
+      <c r="AT91" s="34">
         <f>AT89/AT90</f>
         <v>0.20743928081152704</v>
       </c>
@@ -13918,10 +14374,10 @@
       <c r="AL92" s="1">
         <v>8063000</v>
       </c>
-      <c r="AS92" s="39" t="s">
+      <c r="AS92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AT92" s="40">
+      <c r="AT92" s="36">
         <f>AT88*(1-AT91)</f>
         <v>2.8584707446421932E-2</v>
       </c>
@@ -14041,10 +14497,10 @@
       <c r="AL93" s="1">
         <v>2258000</v>
       </c>
-      <c r="AS93" s="35" t="s">
+      <c r="AS93" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="36"/>
+      <c r="AT93" s="60"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14164,7 +14620,7 @@
       <c r="AS94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AT94" s="41">
+      <c r="AT94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14283,11 +14739,12 @@
       <c r="AL95" s="1">
         <v>-988250000</v>
       </c>
-      <c r="AS95" s="42" t="s">
+      <c r="AS95" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="AT95" s="43">
-        <v>1.27</v>
+      <c r="AT95" s="64" cm="1">
+        <f t="array" ref="AT95">_FV(A1,"Beta")</f>
+        <v>1.2672000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14408,7 +14865,7 @@
       <c r="AS96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AT96" s="41">
+      <c r="AT96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14527,12 +14984,12 @@
       <c r="AL97" s="1">
         <v>-1104180000</v>
       </c>
-      <c r="AS97" s="39" t="s">
+      <c r="AS97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AT97" s="40">
+      <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.56235E-2</v>
+        <v>9.5502960000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -14650,10 +15107,10 @@
       <c r="AL98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS98" s="35" t="s">
+      <c r="AS98" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="36"/>
+      <c r="AT98" s="60"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14893,12 +15350,12 @@
       <c r="AL100" s="10">
         <v>-547165000</v>
       </c>
-      <c r="AS100" s="37" t="s">
+      <c r="AS100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AT100" s="38">
+      <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>9.9761924370297475E-2</v>
+        <v>0.10156957103703232</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15016,12 +15473,12 @@
       <c r="AL101" s="1">
         <v>-18766000</v>
       </c>
-      <c r="AS101" s="42" t="s">
+      <c r="AS101" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="AT101" s="44">
-        <f>AL34*AN116</f>
-        <v>17255704180</v>
+      <c r="AT101" s="50" cm="1">
+        <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
+        <v>16914570000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15139,12 +15596,12 @@
       <c r="AL102" s="10">
         <v>-62152000</v>
       </c>
-      <c r="AS102" s="37" t="s">
+      <c r="AS102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AT102" s="38">
+      <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.90023807562970248</v>
+        <v>0.89843042896296765</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15262,12 +15719,12 @@
       <c r="AL103" s="1">
         <v>195354000</v>
       </c>
-      <c r="AS103" s="39" t="s">
+      <c r="AS103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AT103" s="45">
+      <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>19167934180</v>
+        <v>18826800000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15385,10 +15842,10 @@
       <c r="AL104" s="11">
         <v>133202000</v>
       </c>
-      <c r="AS104" s="35" t="s">
+      <c r="AS104" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="36"/>
+      <c r="AT104" s="60"/>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15550,7 +16007,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>8.893558104739388E-2</v>
+        <v>8.870610179358529E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15668,33 +16125,33 @@
       <c r="AL106" s="1">
         <v>503421000</v>
       </c>
-      <c r="AM106" s="46">
+      <c r="AM106" s="39">
         <f>AL106*(1+$AT$106)</f>
         <v>534585184.94209158</v>
       </c>
-      <c r="AN106" s="46">
+      <c r="AN106" s="39">
         <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
         <v>567678583.05388582</v>
       </c>
-      <c r="AO106" s="46">
+      <c r="AO106" s="39">
         <f t="shared" si="9"/>
         <v>602820621.92384911</v>
       </c>
-      <c r="AP106" s="46">
+      <c r="AP106" s="39">
         <f t="shared" si="9"/>
         <v>640138122.28347158</v>
       </c>
-      <c r="AQ106" s="46">
+      <c r="AQ106" s="39">
         <f t="shared" si="9"/>
         <v>679765755.6784339</v>
       </c>
-      <c r="AR106" s="47" t="s">
+      <c r="AR106" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="AS106" s="48" t="s">
+      <c r="AS106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AT106" s="49">
+      <c r="AT106" s="42">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>6.1904817125411161E-2</v>
       </c>
@@ -15738,150 +16195,151 @@
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
-      <c r="AM107" s="47"/>
-      <c r="AN107" s="47"/>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="50">
+      <c r="AM107" s="40"/>
+      <c r="AN107" s="40"/>
+      <c r="AO107" s="40"/>
+      <c r="AP107" s="40"/>
+      <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>10897842612.142736</v>
-      </c>
-      <c r="AR107" s="51" t="s">
+        <v>10937098330.517422</v>
+      </c>
+      <c r="AR107" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="AS107" s="52" t="s">
+      <c r="AS107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AT107" s="53">
+      <c r="AT107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="50">
+      <c r="AM108" s="43">
         <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
         <v>534585184.94209158</v>
       </c>
-      <c r="AN108" s="50">
+      <c r="AN108" s="43">
         <f t="shared" si="10"/>
         <v>567678583.05388582</v>
       </c>
-      <c r="AO108" s="50">
+      <c r="AO108" s="43">
         <f t="shared" si="10"/>
         <v>602820621.92384911</v>
       </c>
-      <c r="AP108" s="50">
+      <c r="AP108" s="43">
         <f>AP107+AP106</f>
         <v>640138122.28347158</v>
       </c>
-      <c r="AQ108" s="50">
+      <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>11577608367.821171</v>
-      </c>
-      <c r="AR108" s="51" t="s">
+        <v>11616864086.195856</v>
+      </c>
+      <c r="AR108" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="AS108" s="54" t="s">
+      <c r="AS108" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AT108" s="55">
+      <c r="AT108" s="48">
         <f>AT105</f>
-        <v>8.893558104739388E-2</v>
+        <v>8.870610179358529E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="56" t="s">
+      <c r="AM109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="57"/>
+      <c r="AN109" s="62"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="58" t="s">
+      <c r="AM110" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="AN110" s="59">
+      <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>9453282189.1519756</v>
+        <v>9487904731.1042194</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="58" t="s">
+      <c r="AM111" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="AN111" s="59">
+      <c r="AN111" s="50">
         <f>AL40</f>
         <v>133202000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="58" t="s">
+      <c r="AM112" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="AN112" s="59">
+      <c r="AN112" s="50">
         <f>AT99</f>
         <v>1912230000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="58" t="s">
+      <c r="AM113" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AN113" s="59">
+      <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>7674254189.1519756</v>
+        <v>7708876731.1042194</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="58" t="s">
+      <c r="AM114" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AN114" s="60">
+      <c r="AN114" s="51">
         <f>AL34*(1+(5*AR16))</f>
         <v>21198791.334987625</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="61" t="s">
+      <c r="AM115" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="AN115" s="62">
+      <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>362.01376143959556</v>
+        <v>363.64699332556165</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="63" t="s">
+      <c r="AM116" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AN116" s="64">
-        <v>654.94000000000005</v>
+      <c r="AN116" s="65" cm="1">
+        <f t="array" ref="AN116">_FV(A1,"Price")</f>
+        <v>672.42</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="65" t="s">
+      <c r="AM117" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="AN117" s="66">
+      <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>-0.44725660146029322</v>
+        <v>-0.45919664298271667</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="65" t="s">
+      <c r="AM118" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="AN118" s="67" t="str">
+      <c r="AN118" s="56" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AM109:AN109"/>
     <mergeCell ref="AS83:AT83"/>
     <mergeCell ref="AS84:AT84"/>
     <mergeCell ref="AS93:AT93"/>
     <mergeCell ref="AS98:AT98"/>
     <mergeCell ref="AS104:AT104"/>
-    <mergeCell ref="AM109:AN109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/FICO" display="ROIC.AI | FICO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Financials/Fair Isaac Corporation.xlsx
+++ b/Financials/Fair Isaac Corporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F981A45-0CE3-E248-937A-B56FE2D795E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB56B89-F4E5-2242-AF9C-58172FDB57E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2911,13 +2911,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2934,7 +2930,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2945,10 +2941,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3076,11 +3068,9 @@
     <v>Powered by Refinitiv</v>
     <v>940.1</v>
     <v>427.09</v>
-    <v>1.1701999999999999</v>
-    <v>18.38</v>
-    <v>2.2151999999999998E-2</v>
-    <v>-27.23</v>
-    <v>-3.2107000000000004E-2</v>
+    <v>1.1752</v>
+    <v>29.7</v>
+    <v>3.4098999999999997E-2</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
     <v>3437</v>
@@ -3088,25 +3078,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>849</v>
+    <v>907.47</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.958333356248</v>
+    <v>45232.970249964841</v>
     <v>0</v>
-    <v>823.49</v>
-    <v>21081400000</v>
+    <v>879.69</v>
+    <v>22388640474</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>830.99</v>
-    <v>51.517099999999999</v>
-    <v>829.72</v>
-    <v>848.1</v>
-    <v>820.87</v>
+    <v>879.69</v>
+    <v>54.711599999999997</v>
+    <v>870.99</v>
+    <v>900.69</v>
     <v>24857210</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>235815</v>
-    <v>202210</v>
+    <v>191740</v>
+    <v>206061</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3138,8 +3127,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3160,7 +3147,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3177,7 +3163,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3188,16 +3174,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3263,19 +3246,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3320,9 +3297,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3330,9 +3304,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3694,10 +3665,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP97" sqref="AP97"/>
+      <selection pane="bottomRight" activeCell="AM92" sqref="AM92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5868,15 +5839,15 @@
       </c>
       <c r="AS16" s="32">
         <f>AT102/AL3</f>
-        <v>15.30665737291889</v>
+        <v>16.255810751704459</v>
       </c>
       <c r="AT16" s="32">
         <f>AT102/AL28</f>
-        <v>56.436642831710579</v>
+        <v>59.936233168514299</v>
       </c>
       <c r="AU16" s="33">
         <f>AT102/AL107</f>
-        <v>41.876282475303974</v>
+        <v>44.472996704547484</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6259,15 +6230,15 @@
       </c>
       <c r="AS19" s="32">
         <f>AT102/AM3</f>
-        <v>14.234571235651586</v>
+        <v>15.117245424713031</v>
       </c>
       <c r="AT19" s="32">
         <f>AT102/AM28</f>
-        <v>42.562891177064408</v>
+        <v>45.202181453664444</v>
       </c>
       <c r="AU19" s="33">
         <f>AT102/AM107</f>
-        <v>32.533024691358023</v>
+        <v>34.550371101851852</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6710,7 +6681,7 @@
       </c>
       <c r="AU22" s="41">
         <f>AM107/AT102</f>
-        <v>3.0737996527744837E-2</v>
+        <v>2.8943249178194831E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15549,7 +15520,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15678,7 +15649,7 @@
       </c>
       <c r="AT96" s="46" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>1.1701999999999999</v>
+        <v>1.1752</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15935,7 +15906,7 @@
       </c>
       <c r="AT98" s="45">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>9.0050610000000003E-2</v>
+        <v>9.01758E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16319,7 +16290,7 @@
       </c>
       <c r="AT101" s="45">
         <f>AT100/AT104</f>
-        <v>8.3163467447288655E-2</v>
+        <v>7.8689773769459584E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16448,7 +16419,7 @@
       </c>
       <c r="AT102" s="48" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>21081400000</v>
+        <v>22388640474</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16577,7 +16548,7 @@
       </c>
       <c r="AT103" s="45">
         <f>AT102/AT104</f>
-        <v>0.91683653255271136</v>
+        <v>0.92131022623054037</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16708,7 +16679,7 @@
       </c>
       <c r="AT104" s="49">
         <f>AT100+AT102</f>
-        <v>22993630000</v>
+        <v>24300870474</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17069,7 +17040,7 @@
       </c>
       <c r="AT106" s="53">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>8.4938892413867303E-2</v>
+        <v>8.5329210860745103E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -17220,7 +17191,7 @@
       <c r="AP108" s="70"/>
       <c r="AQ108" s="56">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>19409350976.442879</v>
+        <v>19283776190.697411</v>
       </c>
       <c r="AR108" s="57" t="s">
         <v>145</v>
@@ -17251,7 +17222,7 @@
       </c>
       <c r="AQ109" s="56">
         <f>AQ108+AQ107</f>
-        <v>20544350976.442879</v>
+        <v>20418776190.697411</v>
       </c>
       <c r="AR109" s="57" t="s">
         <v>142</v>
@@ -17261,7 +17232,7 @@
       </c>
       <c r="AT109" s="39">
         <f>AT106</f>
-        <v>8.4938892413867303E-2</v>
+        <v>8.5329210860745103E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
@@ -17282,7 +17253,7 @@
       </c>
       <c r="AN111" s="48">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>16315758844.065361</v>
+        <v>16205352217.058878</v>
       </c>
       <c r="AO111" s="43"/>
       <c r="AP111" s="43"/>
@@ -17327,7 +17298,7 @@
       </c>
       <c r="AN114" s="48">
         <f>AN111+AN112-AN113</f>
-        <v>14536730844.065361</v>
+        <v>14426324217.058878</v>
       </c>
       <c r="AO114" s="43"/>
       <c r="AP114" s="43"/>
@@ -17357,7 +17328,7 @@
       </c>
       <c r="AN116" s="62">
         <f>AN114/AN115</f>
-        <v>685.733946542186</v>
+        <v>680.52578984769275</v>
       </c>
       <c r="AO116" s="43"/>
       <c r="AP116" s="43"/>
@@ -17372,7 +17343,7 @@
       </c>
       <c r="AN117" s="63" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price")</f>
-        <v>848.1</v>
+        <v>900.69</v>
       </c>
       <c r="AO117" s="43"/>
       <c r="AP117" s="43"/>
@@ -17387,7 +17358,7 @@
       </c>
       <c r="AN118" s="64">
         <f>AN116/AN117-1</f>
-        <v>-0.19144682638582011</v>
+        <v>-0.24443949655520469</v>
       </c>
       <c r="AO118" s="43"/>
       <c r="AP118" s="43"/>
